--- a/src/main/resources/teacher.xlsx
+++ b/src/main/resources/teacher.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steveyu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steveyu/IdeaProjects/psds/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BC3B8F6-41A6-5C49-9448-CCCB7186CFAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A8E077-E5FB-FD44-BBA0-AFD282D41F33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="800" windowWidth="28800" windowHeight="15940" xr2:uid="{D3FDACB8-4589-0A4E-9907-3F27E31B61CF}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="28800" windowHeight="15940" xr2:uid="{D3FDACB8-4589-0A4E-9907-3F27E31B61CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>编号</t>
   </si>
@@ -57,16 +57,7 @@
     <t>软件工程</t>
   </si>
   <si>
-    <t>金融</t>
-  </si>
-  <si>
     <t>计算机</t>
-  </si>
-  <si>
-    <t>财务</t>
-  </si>
-  <si>
-    <t>会计</t>
   </si>
   <si>
     <t>软件工程专家</t>
@@ -491,7 +482,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -526,7 +517,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -534,22 +525,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
         <v>1201</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1">
         <v>1201</v>
@@ -560,22 +551,22 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1">
         <v>1202</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1">
         <v>1202</v>
@@ -586,22 +577,22 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1">
         <v>1203</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H4" s="1">
         <v>1203</v>
@@ -612,22 +603,22 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D5" s="1">
         <v>1204</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H5" s="1">
         <v>1204</v>
@@ -638,22 +629,22 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>1205</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1">
         <v>1205</v>
